--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:28:27+00:00</t>
+    <t>2026-01-09T14:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T14:11:44+00:00</t>
+    <t>2026-01-09T15:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization-financial-help-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:04:57+00:00</t>
+    <t>2026-01-19T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
